--- a/tests/Lopez_Alexa_Testing_Log.xlsx
+++ b/tests/Lopez_Alexa_Testing_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{473DCD64-D042-44D2-908D-EE05FCDDD21F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE55282E-44DB-4D4C-8DAE-63A6F6B73A6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{ACA48E57-C6D3-4A0F-B3D5-E187FCCD8CE2}"/>
+    <workbookView xWindow="14310" yWindow="4310" windowWidth="14400" windowHeight="7360" xr2:uid="{ACA48E57-C6D3-4A0F-B3D5-E187FCCD8CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Testing Log" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -282,6 +282,78 @@
   </si>
   <si>
     <t>Issues resizing calculator to mobile size</t>
+  </si>
+  <si>
+    <t>API and Security Tests</t>
+  </si>
+  <si>
+    <t>Can't connect Swagger API to Calculator page</t>
+  </si>
+  <si>
+    <t>#15</t>
+  </si>
+  <si>
+    <t>Wasn't able to see requests.  Fixed paths.</t>
+  </si>
+  <si>
+    <t>404 error message on Swagger</t>
+  </si>
+  <si>
+    <t>#16</t>
+  </si>
+  <si>
+    <t>Parameter issues and also worked on the logic in root folder</t>
+  </si>
+  <si>
+    <t>Can only see GET method</t>
+  </si>
+  <si>
+    <t>#17</t>
+  </si>
+  <si>
+    <t>Issues attempting to save POST result</t>
+  </si>
+  <si>
+    <t>#18</t>
+  </si>
+  <si>
+    <t>Tried storing POST request in a variable. No cookies involved yet.</t>
+  </si>
+  <si>
+    <t>POST displays as an array</t>
+  </si>
+  <si>
+    <t>#19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had not created cookies yet. </t>
+  </si>
+  <si>
+    <t>Issues with oAuth security URL redirect</t>
+  </si>
+  <si>
+    <t>#20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oAuth now verifies authentication for requests. </t>
+  </si>
+  <si>
+    <t>Need security tests for oAuth and OpenAPI</t>
+  </si>
+  <si>
+    <t>#21</t>
+  </si>
+  <si>
+    <t>Can see all security measurments working properly though more tests are needed</t>
+  </si>
+  <si>
+    <t>Cant receive PUT, DELETE and HEAD requests</t>
+  </si>
+  <si>
+    <t>#22</t>
+  </si>
+  <si>
+    <t>Unsure what the output should be like. No parameters are being used.</t>
   </si>
 </sst>
 </file>
@@ -665,16 +737,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BB57D2-7CAA-4336-93EC-93082E1F270B}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.7265625" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
@@ -1185,6 +1257,144 @@
         <v>76</v>
       </c>
     </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B37" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>44130</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>44130</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>44130</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/Lopez_Alexa_Testing_Log.xlsx
+++ b/tests/Lopez_Alexa_Testing_Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE55282E-44DB-4D4C-8DAE-63A6F6B73A6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E935C16-C7CE-46AB-AC12-C598783F3280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14310" yWindow="4310" windowWidth="14400" windowHeight="7360" xr2:uid="{ACA48E57-C6D3-4A0F-B3D5-E187FCCD8CE2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="286" xr2:uid="{ACA48E57-C6D3-4A0F-B3D5-E187FCCD8CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Testing Log" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="122">
   <si>
     <t>Date</t>
   </si>
@@ -290,27 +290,18 @@
     <t>Can't connect Swagger API to Calculator page</t>
   </si>
   <si>
-    <t>#15</t>
-  </si>
-  <si>
     <t>Wasn't able to see requests.  Fixed paths.</t>
   </si>
   <si>
     <t>404 error message on Swagger</t>
   </si>
   <si>
-    <t>#16</t>
-  </si>
-  <si>
     <t>Parameter issues and also worked on the logic in root folder</t>
   </si>
   <si>
     <t>Can only see GET method</t>
   </si>
   <si>
-    <t>#17</t>
-  </si>
-  <si>
     <t>Issues attempting to save POST result</t>
   </si>
   <si>
@@ -332,18 +323,12 @@
     <t>Issues with oAuth security URL redirect</t>
   </si>
   <si>
-    <t>#20</t>
-  </si>
-  <si>
     <t xml:space="preserve">oAuth now verifies authentication for requests. </t>
   </si>
   <si>
     <t>Need security tests for oAuth and OpenAPI</t>
   </si>
   <si>
-    <t>#21</t>
-  </si>
-  <si>
     <t>Can see all security measurments working properly though more tests are needed</t>
   </si>
   <si>
@@ -354,6 +339,84 @@
   </si>
   <si>
     <t>Unsure what the output should be like. No parameters are being used.</t>
+  </si>
+  <si>
+    <t>GET Multiplication symbol retrieves result</t>
+  </si>
+  <si>
+    <t>GET plus symbol retrieves result</t>
+  </si>
+  <si>
+    <t>404 Bad request. Must convert symbol to numerical operation</t>
+  </si>
+  <si>
+    <t>GET minus symbol retrieves result</t>
+  </si>
+  <si>
+    <t>GET division symbol retrieves result</t>
+  </si>
+  <si>
+    <t>GET power symbol retrieves result</t>
+  </si>
+  <si>
+    <t>#23</t>
+  </si>
+  <si>
+    <t>Cloud Functions</t>
+  </si>
+  <si>
+    <t>Add function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sends the correct result with a (200 response), bad requests receive 400 error code. </t>
+  </si>
+  <si>
+    <t>Divide function</t>
+  </si>
+  <si>
+    <t>Multiply function</t>
+  </si>
+  <si>
+    <t>Power function</t>
+  </si>
+  <si>
+    <t>Subtract function</t>
+  </si>
+  <si>
+    <t>Docker Installation</t>
+  </si>
+  <si>
+    <t>Setting up Docker Firewall</t>
+  </si>
+  <si>
+    <t>Published docker html page to port 8080</t>
+  </si>
+  <si>
+    <t>Index page displayed on port 8080</t>
+  </si>
+  <si>
+    <t>Calculator Buttons &amp; Functionality</t>
+  </si>
+  <si>
+    <t>Tesint Calculator Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allowed traffic to port 8080 </t>
+  </si>
+  <si>
+    <t>Laravel Installation &amp; Tests</t>
+  </si>
+  <si>
+    <t>Laravel home page displayed on port 8000 and /home</t>
+  </si>
+  <si>
+    <t>Firewall allowed on port 8000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allowed traffic to port 8000 on google platform. </t>
+  </si>
+  <si>
+    <t>Fixed minor misspellings to get it to work.</t>
   </si>
 </sst>
 </file>
@@ -737,11 +800,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BB57D2-7CAA-4336-93EC-93082E1F270B}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -770,32 +833,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>44094</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>44094</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>72</v>
+      <c r="B3" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -803,47 +844,55 @@
         <v>44094</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>44094</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>44094</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>44097</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B7" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>44097</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -851,7 +900,7 @@
         <v>44097</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -865,7 +914,7 @@
         <v>44097</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -879,7 +928,7 @@
         <v>44097</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -893,47 +942,36 @@
         <v>44097</v>
       </c>
       <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B12" t="s">
         <v>66</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-    </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>44097</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>44097</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>56</v>
+      <c r="A14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -941,13 +979,16 @@
         <v>44097</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -955,16 +996,13 @@
         <v>44097</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -972,16 +1010,13 @@
         <v>44097</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -989,16 +1024,16 @@
         <v>44097</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -1006,13 +1041,16 @@
         <v>44097</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1020,16 +1058,16 @@
         <v>44097</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -1037,13 +1075,13 @@
         <v>44097</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1051,7 +1089,16 @@
         <v>44097</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1059,13 +1106,13 @@
         <v>44097</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1073,16 +1120,7 @@
         <v>44097</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1090,13 +1128,13 @@
         <v>44097</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1104,13 +1142,16 @@
         <v>44097</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1118,13 +1159,13 @@
         <v>44097</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1132,16 +1173,13 @@
         <v>44097</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1149,16 +1187,13 @@
         <v>44097</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1166,16 +1201,16 @@
         <v>44097</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1183,16 +1218,16 @@
         <v>44097</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1200,13 +1235,16 @@
         <v>44097</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1214,13 +1252,16 @@
         <v>44097</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1228,72 +1269,66 @@
         <v>44097</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
-      <c r="D34" t="s">
-        <v>52</v>
-      </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
         <v>44099</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>74</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>7</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D37" t="s">
         <v>75</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E37" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B37" s="1" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B39" s="1" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>44130</v>
-      </c>
-      <c r="B38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
-        <v>44130</v>
-      </c>
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -1301,47 +1336,38 @@
         <v>44130</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
       </c>
-      <c r="D40" t="s">
-        <v>85</v>
+      <c r="E40" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
-        <v>44131</v>
+        <v>44130</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
-        <v>44131</v>
+        <v>44130</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -1349,16 +1375,16 @@
         <v>44131</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E43" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -1366,16 +1392,16 @@
         <v>44131</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E44" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -1383,16 +1409,253 @@
         <v>44131</v>
       </c>
       <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" t="s">
         <v>98</v>
       </c>
-      <c r="C45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" t="s">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B50" t="s">
         <v>99</v>
       </c>
-      <c r="E45" t="s">
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B51" t="s">
         <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="2"/>
+      <c r="B54" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B58" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
+        <v>44146</v>
+      </c>
+      <c r="B59" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
+        <v>44146</v>
+      </c>
+      <c r="B60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
+        <v>44146</v>
+      </c>
+      <c r="B61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
+        <v>44146</v>
+      </c>
+      <c r="B62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
+        <v>44146</v>
+      </c>
+      <c r="B63" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B65" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
+        <v>44146</v>
+      </c>
+      <c r="B66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/tests/Lopez_Alexa_Testing_Log.xlsx
+++ b/tests/Lopez_Alexa_Testing_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E935C16-C7CE-46AB-AC12-C598783F3280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F512E25-2236-4F30-9B70-2911AF223892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="286" xr2:uid="{ACA48E57-C6D3-4A0F-B3D5-E187FCCD8CE2}"/>
+    <workbookView xWindow="-9140" yWindow="2660" windowWidth="13650" windowHeight="7360" tabRatio="286" xr2:uid="{ACA48E57-C6D3-4A0F-B3D5-E187FCCD8CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Testing Log" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="137">
   <si>
     <t>Date</t>
   </si>
@@ -417,6 +417,51 @@
   </si>
   <si>
     <t>Fixed minor misspellings to get it to work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Calculator </t>
+  </si>
+  <si>
+    <t>Verifying variables resulting as integers</t>
+  </si>
+  <si>
+    <t>Used the var_dump tool to display the array.</t>
+  </si>
+  <si>
+    <t>Testing cloud function on server</t>
+  </si>
+  <si>
+    <t>Used the function-add function to display test results</t>
+  </si>
+  <si>
+    <t>Positive numbers calculate as expected</t>
+  </si>
+  <si>
+    <t>Testing negative numbers for add tests</t>
+  </si>
+  <si>
+    <t>Testing positive numbers  for add tests</t>
+  </si>
+  <si>
+    <t>Results and negative numbers return as expected</t>
+  </si>
+  <si>
+    <t>Two zero's test</t>
+  </si>
+  <si>
+    <t>Returns back a zero</t>
+  </si>
+  <si>
+    <t>Negative zero test</t>
+  </si>
+  <si>
+    <t>Does not return a -0 as an output.</t>
+  </si>
+  <si>
+    <t>Numbers only test</t>
+  </si>
+  <si>
+    <t>Cannot type letters or non-negative/positive symbols, with the exception of  e (euler) (?)</t>
   </si>
 </sst>
 </file>
@@ -800,11 +845,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BB57D2-7CAA-4336-93EC-93082E1F270B}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1658,6 +1703,109 @@
         <v>121</v>
       </c>
     </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B69" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B71" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B72" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B73" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B74" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B76" t="s">
+        <v>135</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
